--- a/omcr_db.xlsx
+++ b/omcr_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tosh\workspace\omcr_radio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430F7CC2-47DD-4939-A02E-5BF80F29AE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07120E8D-7DA9-44EA-8964-6C24A8F2D5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3930" yWindow="3930" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="channel" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>title</t>
     <phoneticPr fontId="1"/>
@@ -40,10 +40,6 @@
   </si>
   <si>
     <t>logo_filename</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tag</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -178,14 +174,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シモダテツヤと私（地獄のミサワ）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シモダテツヤと私（ヨッピー）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パクパクラジオ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -211,6 +199,14 @@
   </si>
   <si>
     <t>pakupaku_logo.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tags</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シモダテツヤと私（地獄のミサワ）,シモダテツヤと私（ヨッピー）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -536,7 +532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -563,10 +559,10 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -574,22 +570,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -597,22 +593,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -620,22 +616,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -643,22 +639,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -666,22 +662,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -689,22 +685,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
       <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
         <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -712,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -735,22 +731,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -758,45 +754,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
         <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/omcr_db.xlsx
+++ b/omcr_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tosh\workspace\omcr_radio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07120E8D-7DA9-44EA-8964-6C24A8F2D5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A34C412-B268-4993-8C5F-71BFC8E864B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="3930" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="channel" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>title</t>
     <phoneticPr fontId="1"/>
@@ -207,6 +207,22 @@
   </si>
   <si>
     <t>シモダテツヤと私（地獄のミサワ）,シモダテツヤと私（ヨッピー）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>now</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>now_logo.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニュース！オモコロウォッチ！</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -532,9 +548,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -542,7 +560,7 @@
     <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
@@ -685,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -708,19 +726,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
         <v>28</v>
@@ -731,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
         <v>28</v>
@@ -754,21 +772,44 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
         <v>42</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>36</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>28</v>
       </c>
     </row>

--- a/omcr_db.xlsx
+++ b/omcr_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tosh\workspace\omcr_radio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A34C412-B268-4993-8C5F-71BFC8E864B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8988D0E1-3B4A-4863-9D21-848D70DDF135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>tokumei_logo.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>匿名ラジオ</t>
     <rPh sb="0" eb="2">
       <t>トクメイ</t>
@@ -82,10 +78,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ariari_logo.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ありっちゃありアワー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -102,10 +94,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>kamamiku_logo.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>モンゴルナイトフィーバー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -134,10 +122,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>onsei_logo.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フラコト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -154,10 +138,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>furakoto_logo.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ラジオ漫画犬</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -170,10 +150,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mangainu_logo.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パクパクラジオ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -186,10 +162,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>shumowata_logo.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Pakupaku Radio</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -198,10 +170,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>pakupaku_logo.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>tags</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -218,11 +186,43 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>now_logo.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ニュース！オモコロウォッチ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tokumei_1400.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>arispa_1400.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kamamiku_1400.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>onsei_1400.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>now_1400.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>furakoto_1400.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mangainu_1400.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shimowata_1400.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pakupaku_1400.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -550,9 +550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -577,10 +575,10 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -597,13 +595,13 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -611,22 +609,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -634,22 +632,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -657,22 +655,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -680,22 +678,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -703,22 +701,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -726,22 +724,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -749,22 +747,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -772,22 +770,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -795,22 +793,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/omcr_db.xlsx
+++ b/omcr_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tosh\workspace\omcr_radio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8988D0E1-3B4A-4863-9D21-848D70DDF135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB77284-C11D-4F7E-94B9-2C2551AC5B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,10 +190,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>tokumei_1400.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>arispa_1400.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -223,6 +219,10 @@
   </si>
   <si>
     <t>pakupaku_1400.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tokumei_logo.jpg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -595,7 +595,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -618,7 +618,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -641,7 +641,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -687,7 +687,7 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -710,7 +710,7 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
         <v>39</v>
@@ -733,7 +733,7 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -756,7 +756,7 @@
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
         <v>27</v>
@@ -779,7 +779,7 @@
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
         <v>36</v>
@@ -802,7 +802,7 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
         <v>30</v>
